--- a/Data Education and Internet Access.xlsx
+++ b/Data Education and Internet Access.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -610,9 +610,6 @@
   </si>
   <si>
     <t>Average Schooling Years (M+F)</t>
-  </si>
-  <si>
-    <t>Internet Secure Servers (per 1 million people)</t>
   </si>
   <si>
     <t>Quality of the Education System (1-7)</t>
@@ -993,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1013,7 +1010,7 @@
         <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>196</v>
@@ -1021,9 +1018,7 @@
       <c r="D1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
@@ -1035,9 +1030,7 @@
       <c r="D2">
         <v>5.4545454978942871</v>
       </c>
-      <c r="E2">
-        <v>1.1101093292236328</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -1052,9 +1045,7 @@
       <c r="D3">
         <v>54.655960083007812</v>
       </c>
-      <c r="E3">
-        <v>20.686166763305664</v>
-      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -1069,9 +1060,7 @@
       <c r="D4">
         <v>15.228026390075684</v>
       </c>
-      <c r="E4">
-        <v>1.3087806701660156</v>
-      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -1080,9 +1069,7 @@
       <c r="D5">
         <v>86.434425354003906</v>
       </c>
-      <c r="E5">
-        <v>895.153564453125</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
@@ -1094,9 +1081,7 @@
       <c r="D6">
         <v>16.937210083007812</v>
       </c>
-      <c r="E6">
-        <v>3.1738150119781494</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -1105,9 +1090,7 @@
       <c r="D7">
         <v>58</v>
       </c>
-      <c r="E7">
-        <v>689.00372314453125</v>
-      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
@@ -1119,9 +1102,7 @@
       <c r="D8">
         <v>54.200000762939453</v>
       </c>
-      <c r="E8">
-        <v>6.4545388221740723</v>
-      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
@@ -1136,9 +1117,7 @@
       <c r="D9">
         <v>55.799999237060547</v>
       </c>
-      <c r="E9">
-        <v>40.788475036621094</v>
-      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
@@ -1153,9 +1132,7 @@
       <c r="D10">
         <v>79</v>
       </c>
-      <c r="E10">
-        <v>1721.07373046875</v>
-      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
@@ -1170,9 +1147,7 @@
       <c r="D11">
         <v>80.029991149902344</v>
       </c>
-      <c r="E11">
-        <v>1139.0284423828125</v>
-      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -1181,9 +1156,7 @@
       <c r="D12">
         <v>71.748199462890625</v>
       </c>
-      <c r="E12">
-        <v>316.87380981445312</v>
-      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
@@ -1198,9 +1171,7 @@
       <c r="D13">
         <v>88</v>
       </c>
-      <c r="E13">
-        <v>134.2254638671875</v>
-      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
@@ -1215,9 +1186,7 @@
       <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14">
-        <v>0.72782367467880249</v>
-      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -1232,9 +1201,7 @@
       <c r="D15">
         <v>37.5</v>
       </c>
-      <c r="E15">
-        <v>26.86060905456543</v>
-      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
@@ -1249,9 +1216,7 @@
       <c r="D16">
         <v>70</v>
       </c>
-      <c r="E16">
-        <v>376.44720458984375</v>
-      </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
@@ -1266,9 +1231,7 @@
       <c r="D17">
         <v>80.719993591308594</v>
       </c>
-      <c r="E17">
-        <v>674.40997314453125</v>
-      </c>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
@@ -1280,9 +1243,7 @@
       <c r="D18">
         <v>24</v>
       </c>
-      <c r="E18">
-        <v>12.101474761962891</v>
-      </c>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
@@ -1297,9 +1258,7 @@
       <c r="D19">
         <v>35.340000152587891</v>
       </c>
-      <c r="E19">
-        <v>9.9621419906616211</v>
-      </c>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
@@ -1311,9 +1270,7 @@
       <c r="D20">
         <v>52.779998779296875</v>
       </c>
-      <c r="E20">
-        <v>25.859237670898438</v>
-      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
@@ -1328,9 +1285,7 @@
       <c r="D21">
         <v>11.5</v>
       </c>
-      <c r="E21">
-        <v>10.783834457397461</v>
-      </c>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
@@ -1345,9 +1300,7 @@
       <c r="D22">
         <v>48.560001373291016</v>
       </c>
-      <c r="E22">
-        <v>53.280216217041016</v>
-      </c>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
@@ -1362,9 +1315,7 @@
       <c r="D23">
         <v>31</v>
       </c>
-      <c r="E23">
-        <v>273.23458862304688</v>
-      </c>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
@@ -1373,9 +1324,7 @@
       <c r="D24">
         <v>6.9973998069763184</v>
       </c>
-      <c r="E24">
-        <v>7.2838253974914551</v>
-      </c>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
@@ -1390,9 +1339,7 @@
       <c r="D25">
         <v>60.273063659667969</v>
       </c>
-      <c r="E25">
-        <v>113.43684387207031</v>
-      </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
@@ -1407,9 +1354,7 @@
       <c r="D26">
         <v>51.899986267089844</v>
       </c>
-      <c r="E26">
-        <v>164.11421203613281</v>
-      </c>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
@@ -1424,9 +1369,7 @@
       <c r="D27">
         <v>1.069100022315979</v>
       </c>
-      <c r="E27">
-        <v>9.515862911939621E-2</v>
-      </c>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
@@ -1441,9 +1384,7 @@
       <c r="D28">
         <v>1.2199999094009399</v>
       </c>
-      <c r="E28">
-        <v>0.29630881547927856</v>
-      </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
@@ -1452,9 +1393,7 @@
       <c r="D29">
         <v>46.909999847412109</v>
       </c>
-      <c r="E29">
-        <v>19.547760009765625</v>
-      </c>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
@@ -1469,9 +1408,7 @@
       <c r="D30">
         <v>4.940000057220459</v>
       </c>
-      <c r="E30">
-        <v>2.9665076732635498</v>
-      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
@@ -1486,9 +1423,7 @@
       <c r="D31">
         <v>5.6989870071411133</v>
       </c>
-      <c r="E31">
-        <v>1.2003977298736572</v>
-      </c>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
@@ -1503,9 +1438,7 @@
       <c r="D32">
         <v>83</v>
       </c>
-      <c r="E32">
-        <v>1237.9183349609375</v>
-      </c>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
@@ -1517,9 +1450,7 @@
       <c r="D33">
         <v>34.740001678466797</v>
       </c>
-      <c r="E33">
-        <v>23.95831298828125</v>
-      </c>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
@@ -1531,9 +1462,7 @@
       <c r="D34">
         <v>3</v>
       </c>
-      <c r="E34">
-        <v>0.21647363901138306</v>
-      </c>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
@@ -1548,9 +1477,7 @@
       <c r="D35">
         <v>18.285400390625</v>
       </c>
-      <c r="E35">
-        <v>7.6741442680358887</v>
-      </c>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
@@ -1562,9 +1489,7 @@
       <c r="D36">
         <v>2.0999999046325684</v>
       </c>
-      <c r="E36">
-        <v>0.14719896018505096</v>
-      </c>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
@@ -1579,9 +1504,7 @@
       <c r="D37">
         <v>61.418155670166016</v>
       </c>
-      <c r="E37">
-        <v>82.526107788085938</v>
-      </c>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
@@ -1596,9 +1519,7 @@
       <c r="D38">
         <v>42.300117492675781</v>
       </c>
-      <c r="E38">
-        <v>3.1376440525054932</v>
-      </c>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
@@ -1607,6 +1528,7 @@
       <c r="C39">
         <v>10.713128089904785</v>
       </c>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
@@ -1621,9 +1543,7 @@
       <c r="D40">
         <v>48.979999542236328</v>
       </c>
-      <c r="E40">
-        <v>28.94561767578125</v>
-      </c>
+      <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
@@ -1632,9 +1552,7 @@
       <c r="D41">
         <v>5.9752964973449707</v>
       </c>
-      <c r="E41">
-        <v>1.3630273342132568</v>
-      </c>
+      <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
@@ -1646,9 +1564,7 @@
       <c r="D42">
         <v>6.1066951751708984</v>
       </c>
-      <c r="E42">
-        <v>1.3998452425003052</v>
-      </c>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
@@ -1660,9 +1576,7 @@
       <c r="D43">
         <v>1.6799609661102295</v>
       </c>
-      <c r="E43">
-        <v>0.24185118079185486</v>
-      </c>
+      <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
@@ -1677,9 +1591,7 @@
       <c r="D44">
         <v>47.5</v>
       </c>
-      <c r="E44">
-        <v>97.977119445800781</v>
-      </c>
+      <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
@@ -1694,9 +1606,7 @@
       <c r="D45">
         <v>61.939971923828125</v>
       </c>
-      <c r="E45">
-        <v>245.10504150390625</v>
-      </c>
+      <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
@@ -1708,9 +1618,7 @@
       <c r="D46">
         <v>21.200000762939453</v>
       </c>
-      <c r="E46">
-        <v>8.8162966072559357E-2</v>
-      </c>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
@@ -1725,9 +1633,7 @@
       <c r="D47">
         <v>60.689868927001953</v>
       </c>
-      <c r="E47">
-        <v>786.32574462890625</v>
-      </c>
+      <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
@@ -1742,9 +1648,7 @@
       <c r="D48">
         <v>73.430007934570312</v>
       </c>
-      <c r="E48">
-        <v>518.80047607421875</v>
-      </c>
+      <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
@@ -1759,9 +1663,7 @@
       <c r="D49">
         <v>4.5</v>
       </c>
-      <c r="E49">
-        <v>0.69653183221817017</v>
-      </c>
+      <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
@@ -1776,9 +1678,7 @@
       <c r="D50">
         <v>92.260009765625</v>
       </c>
-      <c r="E50">
-        <v>2213.86767578125</v>
-      </c>
+      <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
@@ -1787,9 +1687,7 @@
       <c r="D51">
         <v>55.177013397216797</v>
       </c>
-      <c r="E51">
-        <v>488.2471923828125</v>
-      </c>
+      <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
@@ -1804,9 +1702,7 @@
       <c r="D52">
         <v>41.200000762939453</v>
       </c>
-      <c r="E52">
-        <v>23.239700317382812</v>
-      </c>
+      <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
@@ -1821,9 +1717,7 @@
       <c r="D53">
         <v>35.135147094726562</v>
       </c>
-      <c r="E53">
-        <v>22.244569778442383</v>
-      </c>
+      <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
@@ -1838,9 +1732,7 @@
       <c r="D54">
         <v>20.321388244628906</v>
       </c>
-      <c r="E54">
-        <v>21.408927917480469</v>
-      </c>
+      <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
@@ -1849,9 +1741,7 @@
       <c r="D55">
         <v>13.943181991577148</v>
       </c>
-      <c r="E55">
-        <v>1.2924422025680542</v>
-      </c>
+      <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
@@ -1863,9 +1753,7 @@
       <c r="D56">
         <v>1.4828101396560669</v>
       </c>
-      <c r="E56">
-        <v>0.1952463835477829</v>
-      </c>
+      <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
@@ -1874,6 +1762,7 @@
       <c r="D57">
         <v>0.80000001192092896</v>
       </c>
+      <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
@@ -1888,9 +1777,7 @@
       <c r="D58">
         <v>78.389923095703125</v>
       </c>
-      <c r="E58">
-        <v>668.33197021484375</v>
-      </c>
+      <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
@@ -1902,9 +1789,7 @@
       <c r="D59">
         <v>33.742355346679688</v>
       </c>
-      <c r="E59">
-        <v>35.462696075439453</v>
-      </c>
+      <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
@@ -1919,9 +1804,7 @@
       <c r="D60">
         <v>89.879997253417969</v>
       </c>
-      <c r="E60">
-        <v>1612.679443359375</v>
-      </c>
+      <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
@@ -1936,9 +1819,7 @@
       <c r="D61">
         <v>81.44000244140625</v>
       </c>
-      <c r="E61">
-        <v>409.30850219726562</v>
-      </c>
+      <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
@@ -1947,9 +1828,7 @@
       <c r="D62">
         <v>8.2672328948974609</v>
       </c>
-      <c r="E62">
-        <v>4.6889524459838867</v>
-      </c>
+      <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
@@ -1964,9 +1843,7 @@
       <c r="D63">
         <v>8.6167144775390625</v>
       </c>
-      <c r="E63">
-        <v>11.155948638916016</v>
-      </c>
+      <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
@@ -1978,9 +1855,7 @@
       <c r="D64">
         <v>36.939998626708984</v>
       </c>
-      <c r="E64">
-        <v>26.053844451904297</v>
-      </c>
+      <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
@@ -1995,9 +1870,7 @@
       <c r="D65">
         <v>12.449228286743164</v>
       </c>
-      <c r="E65">
-        <v>3.8735926151275635</v>
-      </c>
+      <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
@@ -2012,9 +1885,7 @@
       <c r="D66">
         <v>82.349998474121094</v>
       </c>
-      <c r="E66">
-        <v>1110.7750244140625</v>
-      </c>
+      <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
@@ -2029,9 +1900,7 @@
       <c r="D67">
         <v>10.600000381469727</v>
       </c>
-      <c r="E67">
-        <v>2.9360454082489014</v>
-      </c>
+      <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
@@ -2040,9 +1909,7 @@
       <c r="D68">
         <v>10.746797561645508</v>
       </c>
-      <c r="E68">
-        <v>9.3791036605834961</v>
-      </c>
+      <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
@@ -2057,9 +1924,7 @@
       <c r="D69">
         <v>55.069992065429688</v>
       </c>
-      <c r="E69">
-        <v>171.19256591796875</v>
-      </c>
+      <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
@@ -2068,9 +1933,7 @@
       <c r="D70">
         <v>32</v>
       </c>
-      <c r="E70">
-        <v>47.404148101806641</v>
-      </c>
+      <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
@@ -2085,9 +1948,7 @@
       <c r="D71">
         <v>16</v>
       </c>
-      <c r="E71">
-        <v>13.859284400939941</v>
-      </c>
+      <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
@@ -2099,9 +1960,7 @@
       <c r="D72">
         <v>1.4901443719863892</v>
       </c>
-      <c r="E72">
-        <v>0.4299682080745697</v>
-      </c>
+      <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
@@ -2116,9 +1975,7 @@
       <c r="D73">
         <v>33</v>
       </c>
-      <c r="E73">
-        <v>6.5927400588989258</v>
-      </c>
+      <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
@@ -2133,9 +1990,7 @@
       <c r="D74">
         <v>9.8000001907348633</v>
       </c>
-      <c r="E74">
-        <v>1.6522775888442993</v>
-      </c>
+      <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
@@ -2150,9 +2005,7 @@
       <c r="D75">
         <v>18.120000839233398</v>
       </c>
-      <c r="E75">
-        <v>9.6947689056396484</v>
-      </c>
+      <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
@@ -2167,9 +2020,7 @@
       <c r="D76">
         <v>70.580001831054688</v>
       </c>
-      <c r="E76">
-        <v>247.77322387695312</v>
-      </c>
+      <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
@@ -2184,9 +2035,7 @@
       <c r="D77">
         <v>96.209800720214844</v>
       </c>
-      <c r="E77">
-        <v>3133.613525390625</v>
-      </c>
+      <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
@@ -2201,9 +2050,7 @@
       <c r="D78">
         <v>12.580060958862305</v>
       </c>
-      <c r="E78">
-        <v>3.4916398525238037</v>
-      </c>
+      <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
@@ -2218,9 +2065,7 @@
       <c r="D79">
         <v>14.520000457763672</v>
       </c>
-      <c r="E79">
-        <v>3.9308516979217529</v>
-      </c>
+      <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
@@ -2235,9 +2080,7 @@
       <c r="D80">
         <v>22.729999542236328</v>
       </c>
-      <c r="E80">
-        <v>1.3524696826934814</v>
-      </c>
+      <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
@@ -2249,9 +2092,7 @@
       <c r="D81">
         <v>7.0999999046325684</v>
       </c>
-      <c r="E81">
-        <v>0.12202199548482895</v>
-      </c>
+      <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
@@ -2266,9 +2107,7 @@
       <c r="D82">
         <v>76.919990539550781</v>
       </c>
-      <c r="E82">
-        <v>1003.5106811523438</v>
-      </c>
+      <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
@@ -2283,9 +2122,7 @@
       <c r="D83">
         <v>70.800003051757812</v>
       </c>
-      <c r="E83">
-        <v>396.3087158203125</v>
-      </c>
+      <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
@@ -2300,9 +2137,7 @@
       <c r="D84">
         <v>55.829998016357422</v>
       </c>
-      <c r="E84">
-        <v>212.88310241699219</v>
-      </c>
+      <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
@@ -2317,9 +2152,7 @@
       <c r="D85">
         <v>5</v>
       </c>
-      <c r="E85">
-        <v>1.3742356300354004</v>
-      </c>
+      <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
@@ -2334,9 +2167,7 @@
       <c r="D86">
         <v>33.790000915527344</v>
       </c>
-      <c r="E86">
-        <v>51.333091735839844</v>
-      </c>
+      <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
@@ -2351,9 +2182,7 @@
       <c r="D87">
         <v>79.49639892578125</v>
       </c>
-      <c r="E87">
-        <v>750.046142578125</v>
-      </c>
+      <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
@@ -2368,9 +2197,7 @@
       <c r="D88">
         <v>53.315670013427734</v>
       </c>
-      <c r="E88">
-        <v>7.3847217559814453</v>
-      </c>
+      <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
@@ -2385,9 +2212,7 @@
       <c r="D89">
         <v>37</v>
       </c>
-      <c r="E89">
-        <v>29.281417846679688</v>
-      </c>
+      <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
@@ -2402,9 +2227,7 @@
       <c r="D90">
         <v>32.099998474121094</v>
       </c>
-      <c r="E90">
-        <v>4.231015682220459</v>
-      </c>
+      <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
@@ -2413,9 +2236,7 @@
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91">
-        <v>4.0167570114135742E-2</v>
-      </c>
+      <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
@@ -2430,9 +2251,7 @@
       <c r="D92">
         <v>84.069999694824219</v>
       </c>
-      <c r="E92">
-        <v>2751.53564453125</v>
-      </c>
+      <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
@@ -2447,9 +2266,7 @@
       <c r="D93">
         <v>70.449996948242188</v>
       </c>
-      <c r="E93">
-        <v>170.1962890625</v>
-      </c>
+      <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
@@ -2464,9 +2281,7 @@
       <c r="D94">
         <v>19.799999237060547</v>
       </c>
-      <c r="E94">
-        <v>4.1018691062927246</v>
-      </c>
+      <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
@@ -2481,9 +2296,7 @@
       <c r="D95">
         <v>10.747675895690918</v>
       </c>
-      <c r="E95">
-        <v>0.92692005634307861</v>
-      </c>
+      <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
@@ -2495,9 +2308,7 @@
       <c r="D96">
         <v>61.249786376953125</v>
       </c>
-      <c r="E96">
-        <v>48.415485382080078</v>
-      </c>
+      <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
@@ -2512,9 +2323,7 @@
       <c r="D97">
         <v>4.5896177291870117</v>
       </c>
-      <c r="E97">
-        <v>0.48006275296211243</v>
-      </c>
+      <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
@@ -2529,9 +2338,7 @@
       <c r="D98">
         <v>73.119941711425781</v>
       </c>
-      <c r="E98">
-        <v>273.31011962890625</v>
-      </c>
+      <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
@@ -2546,9 +2353,7 @@
       <c r="D99">
         <v>2.5999999046325684</v>
       </c>
-      <c r="E99">
-        <v>1.1932733058929443</v>
-      </c>
+      <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
@@ -2563,9 +2368,7 @@
       <c r="D100">
         <v>16.5</v>
       </c>
-      <c r="E100">
-        <v>1.7506437301635742</v>
-      </c>
+      <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
@@ -2574,9 +2377,7 @@
       <c r="D101">
         <v>89.407699584960938</v>
       </c>
-      <c r="E101">
-        <v>8207.34375</v>
-      </c>
+      <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
@@ -2591,9 +2392,7 @@
       <c r="D102">
         <v>67.229988098144531</v>
       </c>
-      <c r="E102">
-        <v>272.77841186523438</v>
-      </c>
+      <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
@@ -2608,9 +2407,7 @@
       <c r="D103">
         <v>91.949920654296875</v>
       </c>
-      <c r="E103">
-        <v>1985.135986328125</v>
-      </c>
+      <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
@@ -2622,9 +2419,7 @@
       <c r="D104">
         <v>2.2999999523162842</v>
       </c>
-      <c r="E104">
-        <v>0.53826814889907837</v>
-      </c>
+      <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
@@ -2639,9 +2434,7 @@
       <c r="D105">
         <v>4.3505997657775879</v>
       </c>
-      <c r="E105">
-        <v>0.89169496297836304</v>
-      </c>
+      <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
@@ -2656,9 +2449,7 @@
       <c r="D106">
         <v>65.800003051757812</v>
       </c>
-      <c r="E106">
-        <v>66.156845092773438</v>
-      </c>
+      <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
@@ -2670,9 +2461,7 @@
       <c r="D107">
         <v>38.930099487304688</v>
       </c>
-      <c r="E107">
-        <v>87.002670288085938</v>
-      </c>
+      <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
@@ -2687,9 +2476,7 @@
       <c r="D108">
         <v>2.7999999523162842</v>
       </c>
-      <c r="E108">
-        <v>0.93096387386322021</v>
-      </c>
+      <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
@@ -2704,9 +2491,7 @@
       <c r="D109">
         <v>68.199874877929688</v>
       </c>
-      <c r="E109">
-        <v>1623.5352783203125</v>
-      </c>
+      <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
@@ -2721,9 +2506,7 @@
       <c r="D110">
         <v>5</v>
       </c>
-      <c r="E110">
-        <v>1.8532898426055908</v>
-      </c>
+      <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
@@ -2738,9 +2521,7 @@
       <c r="D111">
         <v>35.419998168945312</v>
       </c>
-      <c r="E111">
-        <v>138.54804992675781</v>
-      </c>
+      <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
@@ -2755,9 +2536,7 @@
       <c r="D112">
         <v>39.75</v>
       </c>
-      <c r="E112">
-        <v>27.787115097045898</v>
-      </c>
+      <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
@@ -2766,9 +2545,7 @@
       <c r="D113">
         <v>87</v>
       </c>
-      <c r="E113">
-        <v>2753.716064453125</v>
-      </c>
+      <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
@@ -2783,9 +2560,7 @@
       <c r="D114">
         <v>16.399999618530273</v>
       </c>
-      <c r="E114">
-        <v>19.228446960449219</v>
-      </c>
+      <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
@@ -2800,9 +2575,7 @@
       <c r="D115">
         <v>43.369998931884766</v>
       </c>
-      <c r="E115">
-        <v>23.036821365356445</v>
-      </c>
+      <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
@@ -2814,9 +2587,7 @@
       <c r="D116">
         <v>56.838783264160156</v>
       </c>
-      <c r="E116">
-        <v>30.615484237670898</v>
-      </c>
+      <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
@@ -2831,9 +2602,7 @@
       <c r="D117">
         <v>55.416053771972656</v>
       </c>
-      <c r="E117">
-        <v>3.516836404800415</v>
-      </c>
+      <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
@@ -2848,9 +2617,7 @@
       <c r="D118">
         <v>4.8491001129150391</v>
       </c>
-      <c r="E118">
-        <v>1.4767072200775146</v>
-      </c>
+      <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
@@ -2862,9 +2629,7 @@
       <c r="D119">
         <v>60</v>
       </c>
-      <c r="E119">
-        <v>52.465423583984375</v>
-      </c>
+      <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
@@ -2879,14 +2644,13 @@
       <c r="D120">
         <v>12.941399574279785</v>
       </c>
-      <c r="E120">
-        <v>19.63654899597168</v>
-      </c>
+      <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
@@ -2901,9 +2665,7 @@
       <c r="D122">
         <v>11.149299621582031</v>
       </c>
-      <c r="E122">
-        <v>2.4726810455322266</v>
-      </c>
+      <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
@@ -2918,9 +2680,7 @@
       <c r="D123">
         <v>92.859992980957031</v>
       </c>
-      <c r="E123">
-        <v>2805.85546875</v>
-      </c>
+      <c r="E123" s="1"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
@@ -2929,9 +2689,7 @@
       <c r="D124">
         <v>10.597999572753906</v>
       </c>
-      <c r="E124">
-        <v>129.29397583007812</v>
-      </c>
+      <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
@@ -2946,9 +2704,7 @@
       <c r="D125">
         <v>82</v>
       </c>
-      <c r="E125">
-        <v>1474.331298828125</v>
-      </c>
+      <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
@@ -2963,9 +2719,7 @@
       <c r="D126">
         <v>13.5</v>
       </c>
-      <c r="E126">
-        <v>10.549539566040039</v>
-      </c>
+      <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
@@ -2977,9 +2731,7 @@
       <c r="D127">
         <v>1.4076999425888062</v>
       </c>
-      <c r="E127">
-        <v>0.28351449966430664</v>
-      </c>
+      <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
@@ -2991,9 +2743,7 @@
       <c r="D128">
         <v>32.799999237060547</v>
       </c>
-      <c r="E128">
-        <v>1.7474993467330933</v>
-      </c>
+      <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
@@ -3008,9 +2758,7 @@
       <c r="D129">
         <v>94.649978637695312</v>
       </c>
-      <c r="E129">
-        <v>1879.0201416015625</v>
-      </c>
+      <c r="E129" s="1"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
@@ -3019,9 +2767,7 @@
       <c r="D130">
         <v>25.974422454833984</v>
       </c>
-      <c r="E130">
-        <v>57.962055206298828</v>
-      </c>
+      <c r="E130" s="1"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
@@ -3030,17 +2776,13 @@
       <c r="D131">
         <v>12.5</v>
       </c>
-      <c r="E131">
-        <v>132.92063903808594</v>
-      </c>
+      <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E132">
-        <v>96.357681274414062</v>
-      </c>
+      <c r="E132" s="1"/>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
@@ -3055,9 +2797,7 @@
       <c r="D133">
         <v>9.9600000381469727</v>
       </c>
-      <c r="E133">
-        <v>1.2852872610092163</v>
-      </c>
+      <c r="E133" s="1"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
@@ -3072,9 +2812,7 @@
       <c r="D134">
         <v>40.301895141601562</v>
       </c>
-      <c r="E134">
-        <v>135.95953369140625</v>
-      </c>
+      <c r="E134" s="1"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
@@ -3086,9 +2824,7 @@
       <c r="D135">
         <v>3.5</v>
       </c>
-      <c r="E135">
-        <v>7.2677769660949707</v>
-      </c>
+      <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
@@ -3103,9 +2839,7 @@
       <c r="D136">
         <v>29.340000152587891</v>
       </c>
-      <c r="E136">
-        <v>11.443509101867676</v>
-      </c>
+      <c r="E136" s="1"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
@@ -3120,9 +2854,7 @@
       <c r="D137">
         <v>38.200000762939453</v>
       </c>
-      <c r="E137">
-        <v>21.552604675292969</v>
-      </c>
+      <c r="E137" s="1"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
@@ -3137,9 +2869,7 @@
       <c r="D138">
         <v>36.235099792480469</v>
       </c>
-      <c r="E138">
-        <v>8.6859331130981445</v>
-      </c>
+      <c r="E138" s="1"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
@@ -3154,9 +2884,7 @@
       <c r="D139">
         <v>62.30999755859375</v>
       </c>
-      <c r="E139">
-        <v>303.39044189453125</v>
-      </c>
+      <c r="E139" s="1"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
@@ -3171,9 +2899,7 @@
       <c r="D140">
         <v>60.339996337890625</v>
       </c>
-      <c r="E140">
-        <v>241.18284606933594</v>
-      </c>
+      <c r="E140" s="1"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
@@ -3182,9 +2908,7 @@
       <c r="D141">
         <v>2.8939905166625977</v>
       </c>
-      <c r="E141">
-        <v>1.1664391756057739</v>
-      </c>
+      <c r="E141" s="1"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
@@ -3196,9 +2920,7 @@
       <c r="D142">
         <v>0.9146999716758728</v>
       </c>
-      <c r="E142">
-        <v>0.84740805625915527</v>
-      </c>
+      <c r="E142" s="1"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
@@ -3213,9 +2935,7 @@
       <c r="D143">
         <v>69.300003051757812</v>
       </c>
-      <c r="E143">
-        <v>143.37991333007812</v>
-      </c>
+      <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
@@ -3230,9 +2950,7 @@
       <c r="D144">
         <v>45.879993438720703</v>
       </c>
-      <c r="E144">
-        <v>70.794570922851562</v>
-      </c>
+      <c r="E144" s="1"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
@@ -3247,9 +2965,7 @@
       <c r="D145">
         <v>63.799999237060547</v>
       </c>
-      <c r="E145">
-        <v>39.035854339599609</v>
-      </c>
+      <c r="E145" s="1"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
@@ -3264,9 +2980,7 @@
       <c r="D146">
         <v>8.0238542556762695</v>
       </c>
-      <c r="E146">
-        <v>2.1262137889862061</v>
-      </c>
+      <c r="E146" s="1"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
@@ -3275,9 +2989,7 @@
       <c r="D147">
         <v>64</v>
       </c>
-      <c r="E147">
-        <v>1826.654296875</v>
-      </c>
+      <c r="E147" s="1"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
@@ -3286,9 +2998,7 @@
       <c r="D148">
         <v>45.900001525878906</v>
       </c>
-      <c r="E148">
-        <v>93.979766845703125</v>
-      </c>
+      <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
@@ -3297,9 +3007,7 @@
       <c r="D149">
         <v>47.520000457763672</v>
       </c>
-      <c r="E149">
-        <v>192.07200622558594</v>
-      </c>
+      <c r="E149" s="1"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
@@ -3308,9 +3016,7 @@
       <c r="D150">
         <v>49.599998474121094</v>
       </c>
-      <c r="E150">
-        <v>1668.1636962890625</v>
-      </c>
+      <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
@@ -3319,9 +3025,7 @@
       <c r="D151">
         <v>21.572399139404297</v>
       </c>
-      <c r="E151">
-        <v>67.232917785644531</v>
-      </c>
+      <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
@@ -3336,9 +3040,7 @@
       <c r="D152">
         <v>54</v>
       </c>
-      <c r="E152">
-        <v>29.292060852050781</v>
-      </c>
+      <c r="E152" s="1"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
@@ -3353,9 +3055,7 @@
       <c r="D153">
         <v>10.800000190734863</v>
       </c>
-      <c r="E153">
-        <v>2.104482889175415</v>
-      </c>
+      <c r="E153" s="1"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
@@ -3370,9 +3070,7 @@
       <c r="D154">
         <v>48.099998474121094</v>
       </c>
-      <c r="E154">
-        <v>37.782619476318359</v>
-      </c>
+      <c r="E154" s="1"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
@@ -3384,9 +3082,7 @@
       <c r="D155">
         <v>47.076000213623047</v>
       </c>
-      <c r="E155">
-        <v>1121.1397705078125</v>
-      </c>
+      <c r="E155" s="1"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
@@ -3401,9 +3097,7 @@
       <c r="D156">
         <v>1.2999999523162842</v>
       </c>
-      <c r="E156">
-        <v>0.66190570592880249</v>
-      </c>
+      <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
@@ -3418,9 +3112,7 @@
       <c r="D157">
         <v>72</v>
       </c>
-      <c r="E157">
-        <v>635.30609130859375</v>
-      </c>
+      <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
@@ -3435,9 +3127,7 @@
       <c r="D158">
         <v>76.709991455078125</v>
       </c>
-      <c r="E158">
-        <v>226.34898376464844</v>
-      </c>
+      <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
@@ -3452,9 +3142,7 @@
       <c r="D159">
         <v>39.490001678466797</v>
       </c>
-      <c r="E159">
-        <v>6.7024960517883301</v>
-      </c>
+      <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
@@ -3469,9 +3157,7 @@
       <c r="D160">
         <v>68.3499755859375</v>
       </c>
-      <c r="E160">
-        <v>557.0789794921875</v>
-      </c>
+      <c r="E160" s="1"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
@@ -3480,9 +3166,7 @@
       <c r="D161">
         <v>1.3767000436782837</v>
       </c>
-      <c r="E161">
-        <v>9.9664829671382904E-2</v>
-      </c>
+      <c r="E161" s="1"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
@@ -3497,9 +3181,7 @@
       <c r="D162">
         <v>41</v>
       </c>
-      <c r="E162">
-        <v>81.90411376953125</v>
-      </c>
+      <c r="E162" s="1"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
@@ -3514,9 +3196,7 @@
       <c r="D163">
         <v>17.090000152587891</v>
       </c>
-      <c r="E163">
-        <v>2.8148741722106934</v>
-      </c>
+      <c r="E163" s="1"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
@@ -3531,9 +3211,7 @@
       <c r="D164">
         <v>69.80999755859375</v>
       </c>
-      <c r="E164">
-        <v>290.91534423828125</v>
-      </c>
+      <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
@@ -3542,9 +3220,7 @@
       <c r="D165">
         <v>14.100000381469727</v>
       </c>
-      <c r="E165">
-        <v>0.1679094135761261</v>
-      </c>
+      <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
@@ -3553,9 +3229,7 @@
       <c r="D166">
         <v>21</v>
       </c>
-      <c r="E166">
-        <v>6.1610445380210876E-2</v>
-      </c>
+      <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
@@ -3567,9 +3241,7 @@
       <c r="D167">
         <v>34.681198120117188</v>
       </c>
-      <c r="E167">
-        <v>37.840446472167969</v>
-      </c>
+      <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
@@ -3584,9 +3256,7 @@
       <c r="D168">
         <v>20.781782150268555</v>
       </c>
-      <c r="E168">
-        <v>6.495119571685791</v>
-      </c>
+      <c r="E168" s="1"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
@@ -3601,9 +3271,7 @@
       <c r="D169">
         <v>93.179985046386719</v>
       </c>
-      <c r="E169">
-        <v>1511.4439697265625</v>
-      </c>
+      <c r="E169" s="1"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
@@ -3618,9 +3286,7 @@
       <c r="D170">
         <v>85.199996948242188</v>
       </c>
-      <c r="E170">
-        <v>2282.2705078125</v>
-      </c>
+      <c r="E170" s="1"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
@@ -3635,9 +3301,7 @@
       <c r="D171">
         <v>24.300100326538086</v>
       </c>
-      <c r="E171">
-        <v>0.37335801124572754</v>
-      </c>
+      <c r="E171" s="1"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
@@ -3652,9 +3316,7 @@
       <c r="D172">
         <v>14.510000228881836</v>
       </c>
-      <c r="E172">
-        <v>0.88262045383453369</v>
-      </c>
+      <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
@@ -3669,9 +3331,7 @@
       <c r="D173">
         <v>26.459999084472656</v>
       </c>
-      <c r="E173">
-        <v>19.45979118347168</v>
-      </c>
+      <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
@@ -3683,9 +3343,7 @@
       <c r="D174">
         <v>4</v>
       </c>
-      <c r="E174">
-        <v>3.2613945007324219</v>
-      </c>
+      <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
@@ -3697,9 +3355,7 @@
       <c r="D175">
         <v>33</v>
       </c>
-      <c r="E175">
-        <v>28.634424209594727</v>
-      </c>
+      <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
@@ -3714,9 +3370,7 @@
       <c r="D176">
         <v>59.516201019287109</v>
       </c>
-      <c r="E176">
-        <v>96.155349731445312</v>
-      </c>
+      <c r="E176" s="1"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
@@ -3731,9 +3385,7 @@
       <c r="D177">
         <v>84.999992370605469</v>
       </c>
-      <c r="E177">
-        <v>188.88490295410156</v>
-      </c>
+      <c r="E177" s="1"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
@@ -3748,9 +3400,7 @@
       <c r="D178">
         <v>41.441600799560547</v>
       </c>
-      <c r="E178">
-        <v>13.08281135559082</v>
-      </c>
+      <c r="E178" s="1"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
@@ -3765,9 +3415,7 @@
       <c r="D179">
         <v>45.130001068115234</v>
       </c>
-      <c r="E179">
-        <v>116.60036468505859</v>
-      </c>
+      <c r="E179" s="1"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
@@ -3776,9 +3424,7 @@
       <c r="D180">
         <v>7.1957998275756836</v>
       </c>
-      <c r="E180">
-        <v>0.38662725687026978</v>
-      </c>
+      <c r="E180" s="1"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
@@ -3787,6 +3433,7 @@
       <c r="D181">
         <v>35</v>
       </c>
+      <c r="E181" s="1"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
@@ -3801,9 +3448,7 @@
       <c r="D182">
         <v>14.689599990844727</v>
       </c>
-      <c r="E182">
-        <v>1.497148871421814</v>
-      </c>
+      <c r="E182" s="1"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
@@ -3818,9 +3463,7 @@
       <c r="D183">
         <v>35.270000457763672</v>
       </c>
-      <c r="E183">
-        <v>23.490293502807617</v>
-      </c>
+      <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
@@ -3832,9 +3475,7 @@
       <c r="D184">
         <v>57.449947357177734</v>
       </c>
-      <c r="E184">
-        <v>40.110763549804688</v>
-      </c>
+      <c r="E184" s="1"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
@@ -3849,9 +3490,7 @@
       <c r="D185">
         <v>26.399999618530273</v>
       </c>
-      <c r="E185">
-        <v>3.4905073642730713</v>
-      </c>
+      <c r="E185" s="1"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
@@ -3866,9 +3505,7 @@
       <c r="D186">
         <v>87.479995727539062</v>
       </c>
-      <c r="E186">
-        <v>1467.30859375</v>
-      </c>
+      <c r="E186" s="1"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
@@ -3883,9 +3520,7 @@
       <c r="D187">
         <v>3.9500000476837158</v>
       </c>
-      <c r="E187">
-        <v>0.74004471302032471</v>
-      </c>
+      <c r="E187" s="1"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
@@ -3900,9 +3535,7 @@
       <c r="D188">
         <v>79.300003051757812</v>
       </c>
-      <c r="E188">
-        <v>1473.1461181640625</v>
-      </c>
+      <c r="E188" s="1"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
@@ -3914,9 +3547,7 @@
       <c r="D189">
         <v>3.7250349521636963</v>
       </c>
-      <c r="E189">
-        <v>0.60274320840835571</v>
-      </c>
+      <c r="E189" s="1"/>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
@@ -3931,9 +3562,7 @@
       <c r="D190">
         <v>54.453769683837891</v>
       </c>
-      <c r="E190">
-        <v>80.370872497558594</v>
-      </c>
+      <c r="E190" s="1"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
@@ -3942,9 +3571,7 @@
       <c r="D191">
         <v>36.52130126953125</v>
       </c>
-      <c r="E191">
-        <v>0.67171573638916016</v>
-      </c>
+      <c r="E191" s="1"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
@@ -3959,9 +3586,7 @@
       <c r="D192">
         <v>49.050083160400391</v>
       </c>
-      <c r="E192">
-        <v>10.718746185302734</v>
-      </c>
+      <c r="E192" s="1"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
@@ -3970,9 +3595,7 @@
       <c r="D193">
         <v>12.922490119934082</v>
       </c>
-      <c r="E193">
-        <v>26.468891143798828</v>
-      </c>
+      <c r="E193" s="1"/>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
@@ -3987,9 +3610,7 @@
       <c r="D194">
         <v>17.446500778198242</v>
       </c>
-      <c r="E194">
-        <v>0.44207257032394409</v>
-      </c>
+      <c r="E194" s="1"/>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
@@ -4004,9 +3625,100 @@
       <c r="D195">
         <v>13.468199729919434</v>
       </c>
-      <c r="E195">
-        <v>2.2317533493041992</v>
-      </c>
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="E200" s="1"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="E201" s="1"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="E202" s="1"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="E203" s="1"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="E206" s="1"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="E207" s="1"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="E208" s="1"/>
+    </row>
+    <row r="209" spans="5:5">
+      <c r="E209" s="1"/>
+    </row>
+    <row r="210" spans="5:5">
+      <c r="E210" s="1"/>
+    </row>
+    <row r="211" spans="5:5">
+      <c r="E211" s="1"/>
+    </row>
+    <row r="212" spans="5:5">
+      <c r="E212" s="1"/>
+    </row>
+    <row r="213" spans="5:5">
+      <c r="E213" s="1"/>
+    </row>
+    <row r="214" spans="5:5">
+      <c r="E214" s="1"/>
+    </row>
+    <row r="215" spans="5:5">
+      <c r="E215" s="1"/>
+    </row>
+    <row r="216" spans="5:5">
+      <c r="E216" s="1"/>
+    </row>
+    <row r="217" spans="5:5">
+      <c r="E217" s="1"/>
+    </row>
+    <row r="218" spans="5:5">
+      <c r="E218" s="1"/>
+    </row>
+    <row r="219" spans="5:5">
+      <c r="E219" s="1"/>
+    </row>
+    <row r="220" spans="5:5">
+      <c r="E220" s="1"/>
+    </row>
+    <row r="221" spans="5:5">
+      <c r="E221" s="1"/>
+    </row>
+    <row r="222" spans="5:5">
+      <c r="E222" s="1"/>
+    </row>
+    <row r="223" spans="5:5">
+      <c r="E223" s="1"/>
+    </row>
+    <row r="224" spans="5:5">
+      <c r="E224" s="1"/>
+    </row>
+    <row r="225" spans="5:5">
+      <c r="E225" s="1"/>
+    </row>
+    <row r="226" spans="5:5">
+      <c r="E226" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
